--- a/data/output/high_noisy/results/ssim.xlsx
+++ b/data/output/high_noisy/results/ssim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03812845-6F07-4177-AB43-0863916876D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779680BD-7EB9-4134-9580-728239C0732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,13 +437,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.86398512000000005</v>
+        <v>0.88203600000000004</v>
       </c>
       <c r="B2">
-        <v>0.85447695000000001</v>
+        <v>0.86898134000000005</v>
       </c>
       <c r="C2">
-        <v>0.89580574999999996</v>
+        <v>0.93449289999999996</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -533,6 +533,7 @@
       <c r="C10">
         <v>0.88442761999999997</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
